--- a/4 курс/1 семестр/Экономика/ЛР 1/LW1.xlsx
+++ b/4 курс/1 семестр/Экономика/ЛР 1/LW1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -256,13 +256,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -629,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,7 +642,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -667,7 +667,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
+      <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -690,7 +690,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
       <c r="B3" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
@@ -738,7 +738,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
+      <c r="A5" s="4"/>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -761,7 +761,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
+      <c r="A6" s="4"/>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -833,11 +833,11 @@
       </c>
       <c r="H9" s="2">
         <f>B15/H10</f>
-        <v>0.50969190417721144</v>
+        <v>0.4157394794440849</v>
       </c>
       <c r="I9" s="2">
         <f>C15/I10</f>
-        <v>0.65469439402469987</v>
+        <v>0.5753846218269334</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -855,11 +855,11 @@
       </c>
       <c r="H10">
         <f>H11*B13</f>
-        <v>151972.19999999998</v>
+        <v>186316.19999999998</v>
       </c>
       <c r="I10">
         <f>I11*C13</f>
-        <v>165802.54999999999</v>
+        <v>188656.41500000001</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -867,12 +867,12 @@
         <v>29</v>
       </c>
       <c r="H11">
-        <f>H12*(1-(0.015*5+0.02*(B14-10)))</f>
-        <v>1688.58</v>
+        <f>H12*(1-(0.015*5+0.02*(2-10)))</f>
+        <v>2070.1799999999998</v>
       </c>
       <c r="I11">
-        <f>I12*(1-(0.015*(C14-5)))</f>
-        <v>1745.29</v>
+        <f>I12*(1-(0.015*(1.5-5)))</f>
+        <v>1985.857</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -977,7 +977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
@@ -1002,7 +1002,7 @@
       <c r="B1">
         <v>412</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
@@ -1014,18 +1014,18 @@
       <c r="I1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="5"/>
+      <c r="M1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="4" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="4"/>
+      <c r="P1" s="5"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -1034,7 +1034,7 @@
       <c r="B2">
         <v>158</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>2</v>
       </c>
@@ -1047,8 +1047,8 @@
       <c r="K2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
       <c r="O2" t="s">
         <v>45</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="B3">
         <v>0.4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
@@ -1118,7 +1118,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D5" s="3"/>
+      <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="D6" s="3"/>
+      <c r="D6" s="4"/>
       <c r="E6" t="s">
         <v>7</v>
       </c>
@@ -1192,10 +1192,10 @@
       <c r="H8" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="3">
         <v>0.1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="3">
         <v>0.11</v>
       </c>
       <c r="M8" s="6" t="s">
@@ -1251,7 +1251,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="M6:N6"/>
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="M8:N8"/>
     <mergeCell ref="M9:M10"/>
@@ -1264,6 +1263,7 @@
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
